--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_283.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_283.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.52, 29.1)]</t>
+          <t>[('0:01:11.400000', '0:01:14.700000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_146</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[('0:00:03.320000', '0:00:06.300000'), ('0:00:00.560000', '0:00:04.260000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(86.98, 111.2)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000'), ('0:00:31.600000', '0:00:33.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7857142857142857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.88, 45.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.72, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
